--- a/Data/Export/44 Langenberg.xlsx
+++ b/Data/Export/44 Langenberg.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25306"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="280" yWindow="600" windowWidth="28220" windowHeight="11960"/>
+    <workbookView xWindow="285" yWindow="600" windowWidth="24240" windowHeight="11955"/>
   </bookViews>
   <sheets>
     <sheet name="Placettes" sheetId="1" r:id="rId1"/>
@@ -22,17 +22,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Rege!$A$1:$M$691</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Transect!$A$1:$L$1123</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="114210" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8731" uniqueCount="501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8732" uniqueCount="502">
   <si>
     <t>num</t>
   </si>
@@ -1536,35 +1531,29 @@
   <si>
     <t>Groupe2</t>
   </si>
+  <si>
+    <t>Habitat</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1576,24 +1565,91 @@
       <family val="1"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color theme="10"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color theme="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1608,26 +1664,25 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="238"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="238"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color indexed="8"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="238"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1663,52 +1718,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1720,42 +1732,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="36">
@@ -1772,19 +1748,167 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC0C0C0"/>
-        <bgColor rgb="FF000000"/>
+        <fgColor indexed="22"/>
+        <bgColor indexed="8"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
+        <fgColor indexed="55"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
       </patternFill>
     </fill>
     <fill>
@@ -1799,160 +1923,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
       </patternFill>
     </fill>
   </fills>
@@ -1962,6 +1938,60 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1992,41 +2022,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2045,196 +2047,149 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="60">
+  <cellStyleXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="11" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="49" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="51" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="50" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="49" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="49" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="50" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="51" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="16" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="51" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="35" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="49" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="60">
-    <cellStyle name="20 % - Accent1" xfId="35" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent2" xfId="39" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent3" xfId="43" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent4" xfId="47" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent5" xfId="51" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent6" xfId="55" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent1" xfId="36" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent2" xfId="40" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent3" xfId="44" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent4" xfId="48" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent5" xfId="52" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent6" xfId="56" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent1" xfId="37" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent2" xfId="41" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent3" xfId="45" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent4" xfId="49" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent5" xfId="53" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent6" xfId="57" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="34" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="38" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="42" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="46" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="50" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="54" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Avertissement" xfId="31" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Bon" xfId="23" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Calcul" xfId="28" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Cellule liée" xfId="29" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Commentaire 2" xfId="58"/>
-    <cellStyle name="Entrée" xfId="26" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Insatisfaisant" xfId="24" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Lien hypertexte" xfId="8" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="10" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="12" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="14" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="9" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="11" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="13" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="15" builtinId="9" hidden="1"/>
-    <cellStyle name="Neutre" xfId="25" builtinId="28" customBuiltin="1"/>
+  <cellStyles count="52">
+    <cellStyle name="20 % - Accent1" xfId="1" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20 % - Accent2" xfId="2" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20 % - Accent3" xfId="3" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20 % - Accent4" xfId="4" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20 % - Accent5" xfId="5" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20 % - Accent6" xfId="6" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40 % - Accent1" xfId="7" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40 % - Accent2" xfId="8" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40 % - Accent3" xfId="9" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40 % - Accent4" xfId="10" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40 % - Accent5" xfId="11" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40 % - Accent6" xfId="12" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60 % - Accent1" xfId="13" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60 % - Accent2" xfId="14" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60 % - Accent3" xfId="15" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60 % - Accent4" xfId="16" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60 % - Accent5" xfId="17" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60 % - Accent6" xfId="18" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="19" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="20" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="21" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="22" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="23" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="24" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Avertissement" xfId="25" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Calcul" xfId="26" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Cellule liée" xfId="27" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Commentaire 2" xfId="28"/>
+    <cellStyle name="Entrée" xfId="29" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Insatisfaisant" xfId="30" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Neutre" xfId="31" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="6"/>
-    <cellStyle name="Normal 2 2" xfId="17"/>
-    <cellStyle name="Normal 2 3" xfId="59"/>
-    <cellStyle name="Normal 3" xfId="16"/>
-    <cellStyle name="Pourcentage 2" xfId="7"/>
-    <cellStyle name="Sortie" xfId="27" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Texte explicatif" xfId="32" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Titre " xfId="18" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Titre 1" xfId="19" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Titre 2" xfId="20" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Titre 3" xfId="21" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Titre 4" xfId="22" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="33" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Vérification de cellule" xfId="30" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="XLConnect.Boolean" xfId="4"/>
-    <cellStyle name="XLConnect.DateTime" xfId="5"/>
-    <cellStyle name="XLConnect.Header" xfId="1"/>
-    <cellStyle name="XLConnect.Numeric" xfId="3"/>
-    <cellStyle name="XLConnect.String" xfId="2"/>
+    <cellStyle name="Normal 2" xfId="32"/>
+    <cellStyle name="Normal 2 2" xfId="33"/>
+    <cellStyle name="Normal 2 3" xfId="34"/>
+    <cellStyle name="Normal 3" xfId="35"/>
+    <cellStyle name="Pourcentage 2" xfId="36"/>
+    <cellStyle name="Satisfaisant" xfId="37" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Sortie" xfId="38" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Texte explicatif" xfId="39" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Titre" xfId="40" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Titre 1" xfId="41" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Titre 2" xfId="42" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Titre 3" xfId="43" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Titre 4" xfId="44" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="45" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Vérification" xfId="46" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="XLConnect.Boolean" xfId="47"/>
+    <cellStyle name="XLConnect.DateTime" xfId="48"/>
+    <cellStyle name="XLConnect.Header" xfId="49"/>
+    <cellStyle name="XLConnect.Numeric" xfId="50"/>
+    <cellStyle name="XLConnect.String" xfId="51"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -2524,16 +2479,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S97"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:T97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1:S1"/>
+      <selection activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:20">
       <c r="A1" s="4" t="s">
         <v>46</v>
       </c>
@@ -2591,8 +2546,11 @@
       <c r="S1" s="9" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="2" spans="1:19">
+      <c r="T1" s="4" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="3">
         <v>44</v>
       </c>
@@ -2639,7 +2597,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:20">
       <c r="A3" s="3">
         <v>44</v>
       </c>
@@ -2686,7 +2644,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:20">
       <c r="A4" s="3">
         <v>44</v>
       </c>
@@ -2733,7 +2691,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:20">
       <c r="A5" s="3">
         <v>44</v>
       </c>
@@ -2780,7 +2738,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:20">
       <c r="A6" s="3">
         <v>44</v>
       </c>
@@ -2827,7 +2785,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:20">
       <c r="A7" s="3">
         <v>44</v>
       </c>
@@ -2874,7 +2832,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:20">
       <c r="A8" s="3">
         <v>44</v>
       </c>
@@ -2921,7 +2879,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:20">
       <c r="A9" s="3">
         <v>44</v>
       </c>
@@ -2968,7 +2926,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:20">
       <c r="A10" s="3">
         <v>44</v>
       </c>
@@ -3015,7 +2973,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:20">
       <c r="A11" s="3">
         <v>44</v>
       </c>
@@ -3062,7 +3020,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:20">
       <c r="A12" s="3">
         <v>44</v>
       </c>
@@ -3109,7 +3067,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:20">
       <c r="A13" s="3">
         <v>44</v>
       </c>
@@ -3156,7 +3114,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:20">
       <c r="A14" s="3">
         <v>44</v>
       </c>
@@ -3203,7 +3161,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:20">
       <c r="A15" s="3">
         <v>44</v>
       </c>
@@ -3250,7 +3208,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:20">
       <c r="A16" s="3">
         <v>44</v>
       </c>
@@ -4806,21 +4764,14 @@
       <c r="F97" s="3"/>
     </row>
   </sheetData>
-  <sortState ref="A2:V97">
-    <sortCondition ref="B2:B97"/>
-  </sortState>
+  <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q1144"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4829,7 +4780,7 @@
       <selection pane="bottomLeft" activeCell="E1141" sqref="E1141"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="9" t="s">
@@ -56882,30 +56833,21 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:Q1144">
-    <sortCondition ref="A2:A1144"/>
-    <sortCondition ref="B2:B1144"/>
-    <sortCondition ref="F2:F1144"/>
-  </sortState>
+  <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M691"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="U23" sqref="U23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="9" t="s">
@@ -68121,24 +68063,20 @@
       <c r="M691" s="2"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L1123"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="9" t="s">
@@ -91113,27 +91051,23 @@
       <c r="L1123" s="2"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError sqref="J2:K329" numberStoredAsText="1"/>
   </ignoredErrors>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="P33" sqref="P33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="4" t="s">
@@ -93808,27 +93742,23 @@
       <c r="M98" s="2"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError sqref="K2:L36" numberStoredAsText="1"/>
   </ignoredErrors>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="10" t="s">
@@ -93854,24 +93784,20 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView topLeftCell="A49" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:D41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="13" t="s">
@@ -94571,11 +94497,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>